--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -418,6 +417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -453,6 +469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,43 +666,43 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+      <c r="A4" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Fragebogenerstellen</t>
   </si>
   <si>
-    <t>Auftragsbeschreibung erfassen</t>
-  </si>
-  <si>
     <t>Lastenheft erstellen</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>Grobkonzept erstellen</t>
   </si>
   <si>
-    <t>Wirdschaftlichkeitsanalyse durchführen</t>
-  </si>
-  <si>
     <t>Pflichtenheft erstellen</t>
   </si>
   <si>
@@ -72,12 +66,6 @@
     <t>Kostenplan erstellen</t>
   </si>
   <si>
-    <t>Analyse(Fachkonzept) durchführen</t>
-  </si>
-  <si>
-    <t>Meilensteine definieren</t>
-  </si>
-  <si>
     <t>Clientkonfiguration planen</t>
   </si>
   <si>
@@ -136,6 +124,15 @@
   </si>
   <si>
     <t>QM-Plan erstellen</t>
+  </si>
+  <si>
+    <t>Dauer in Stunden</t>
+  </si>
+  <si>
+    <t>Auftragsbeschreibung erfassen / Interview</t>
+  </si>
+  <si>
+    <t>Wirtschaftlichkeitsanalyse durchführen</t>
   </si>
 </sst>
 </file>
@@ -157,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +173,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -300,11 +309,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -314,16 +347,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,23 +466,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -469,23 +501,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,234 +653,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:B32"/>
+    <mergeCell ref="B16:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Testen</t>
-  </si>
-  <si>
-    <t>Handbucherstellen</t>
   </si>
   <si>
     <t>Soll-Ist Vergleich (Zeit,Funktionalität)</t>
@@ -337,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -368,9 +365,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -653,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +662,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -720,7 +714,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
@@ -744,7 +738,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="14">
         <v>0.5</v>
@@ -787,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16"/>
     </row>
@@ -850,28 +844,36 @@
         <v>19</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -885,71 +887,80 @@
         <v>23</v>
       </c>
       <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="14"/>
+      <c r="C33" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="14"/>
+      <c r="C35" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:B31"/>
+    <mergeCell ref="B16:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Arbeitspakete.xlsx
+++ b/Arbeitspakete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Projekt-Thema analysieren</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Vorgänge/ Arbeitspakete definieren</t>
-  </si>
-  <si>
-    <t>Technische Schnittstellen definieren</t>
   </si>
   <si>
     <t>Projektdefinition</t>
@@ -334,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -343,7 +340,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -367,6 +363,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -647,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,264 +660,264 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="14">
+        <v>35</v>
+      </c>
+      <c r="C11" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="16"/>
-    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14">
+      <c r="B17" s="20"/>
+      <c r="C17" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14">
-        <v>0.5</v>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14">
-        <v>1</v>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14">
-        <v>0.5</v>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14">
+      <c r="B21" s="20"/>
+      <c r="C21" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14">
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14">
+        <v>19</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14">
-        <v>2</v>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>1</v>
       </c>
     </row>
@@ -927,7 +925,7 @@
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>1</v>
       </c>
     </row>
@@ -935,7 +933,7 @@
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <v>1</v>
       </c>
     </row>
@@ -943,24 +941,16 @@
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B16:B30"/>
+    <mergeCell ref="B15:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
